--- a/Maps/HOTAS Switch and Button - Quick Reference.xlsx
+++ b/Maps/HOTAS Switch and Button - Quick Reference.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-410b\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-420\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -515,9 +515,6 @@
     <t>Launch?</t>
   </si>
   <si>
-    <t>HOTAS - Quick reference - v4.1.0</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>tgTriggerDelay</t>
+  </si>
+  <si>
+    <t>HOTAS - Quick reference - v4.2.0</t>
   </si>
 </sst>
 </file>
@@ -1100,24 +1100,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,23 +1118,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B2" sqref="B2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,43 +1456,43 @@
   <sheetData>
     <row r="1" spans="2:15" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="G4" s="50" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="G4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="L4" s="50" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="L4" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
@@ -1547,21 +1547,21 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="43" t="s">
         <v>135</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="32"/>
       <c r="J7" s="21"/>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="42" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="12" t="s">
@@ -1571,17 +1571,17 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="47"/>
+        <v>171</v>
+      </c>
+      <c r="G8" s="44"/>
       <c r="H8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1599,17 +1599,17 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-      <c r="G9" s="47"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="3"/>
       <c r="I9" s="33"/>
       <c r="J9" s="23"/>
-      <c r="L9" s="42"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1617,17 +1617,17 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>136</v>
       </c>
       <c r="H10" s="3"/>
@@ -1643,15 +1643,15 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="47"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="28" t="s">
         <v>31</v>
       </c>
@@ -1669,21 +1669,21 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="47"/>
+        <v>172</v>
+      </c>
+      <c r="G12" s="44"/>
       <c r="H12" s="3"/>
       <c r="I12" s="33"/>
       <c r="J12" s="23"/>
-      <c r="L12" s="42"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="44" t="s">
         <v>137</v>
       </c>
       <c r="H13" s="3"/>
@@ -1715,13 +1715,13 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="24"/>
-      <c r="G14" s="47"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1739,17 +1739,17 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="6"/>
-      <c r="G15" s="48"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="27"/>
       <c r="I15" s="33"/>
       <c r="J15" s="23"/>
-      <c r="L15" s="40"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="43" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="42" t="s">
         <v>84</v>
       </c>
       <c r="M17" s="12" t="s">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>60</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="L19" s="42"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1863,15 +1863,15 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="43" t="s">
         <v>132</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="43" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="29" t="s">
@@ -1889,17 +1889,17 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="47"/>
+        <v>171</v>
+      </c>
+      <c r="G22" s="44"/>
       <c r="H22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>62</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="L22" s="40"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="5" t="s">
         <v>32</v>
       </c>
@@ -1915,13 +1915,13 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="48"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="5" t="s">
         <v>32</v>
       </c>
@@ -1931,21 +1931,21 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="42" t="s">
         <v>86</v>
       </c>
       <c r="M24" s="12" t="s">
@@ -1955,15 +1955,15 @@
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="42" t="s">
         <v>63</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -1981,15 +1981,15 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="3" t="s">
@@ -1999,7 +1999,7 @@
         <v>130</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="L26" s="42"/>
+      <c r="L26" s="40"/>
       <c r="M26" s="3" t="s">
         <v>32</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="G27" s="42"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="3" t="s">
         <v>32</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="42" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -2069,7 +2069,7 @@
         <v>131</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="L29" s="40"/>
+      <c r="L29" s="41"/>
       <c r="M29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2077,13 +2077,13 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="23"/>
-      <c r="G30" s="42"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="42" t="s">
         <v>88</v>
       </c>
       <c r="M31" s="12" t="s">
@@ -2113,7 +2113,7 @@
       <c r="O31" s="13"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -2147,13 +2147,13 @@
         <v>5</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="G33" s="42"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="L33" s="40"/>
+      <c r="L33" s="41"/>
       <c r="M33" s="5" t="s">
         <v>32</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>110</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="L35" s="41" t="s">
+      <c r="L35" s="42" t="s">
         <v>89</v>
       </c>
       <c r="M35" s="12" t="s">
@@ -2199,7 +2199,7 @@
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="42" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="G36" s="40"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="5" t="s">
         <v>32</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="L37" s="40"/>
+      <c r="L37" s="41"/>
       <c r="M37" s="5" t="s">
         <v>32</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="42"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2249,14 +2249,14 @@
         <v>8</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="G38" s="41" t="s">
+      <c r="G38" s="42" t="s">
         <v>67</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J38" s="13"/>
     </row>
@@ -2271,11 +2271,11 @@
       <c r="E39" s="4"/>
       <c r="G39" s="39"/>
       <c r="H39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="L39" s="41" t="s">
+      <c r="L39" s="42" t="s">
         <v>90</v>
       </c>
       <c r="M39" s="12" t="s">
@@ -2293,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="G40" s="42"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
       <c r="J40" s="22"/>
@@ -2307,7 +2307,7 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="3" t="s">
         <v>32</v>
       </c>
@@ -2317,13 +2317,13 @@
         <v>68</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J41" s="4"/>
-      <c r="L41" s="42"/>
+      <c r="L41" s="40"/>
       <c r="M41" s="3" t="s">
         <v>32</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="E42" s="4"/>
       <c r="G42" s="39"/>
       <c r="H42" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
@@ -2363,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="G43" s="42"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
       <c r="J43" s="22"/>
@@ -2377,7 +2377,7 @@
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="3" t="s">
         <v>32</v>
       </c>
@@ -2387,13 +2387,13 @@
         <v>69</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J44" s="4"/>
-      <c r="L44" s="42"/>
+      <c r="L44" s="40"/>
       <c r="M44" s="3" t="s">
         <v>32</v>
       </c>
@@ -2415,7 +2415,7 @@
       <c r="E45" s="4"/>
       <c r="G45" s="39"/>
       <c r="H45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
@@ -2437,7 +2437,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="G46" s="42"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
       <c r="J46" s="22"/>
@@ -2451,7 +2451,7 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="5" t="s">
         <v>32</v>
       </c>
@@ -2463,13 +2463,13 @@
         <v>70</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="L47" s="40"/>
+      <c r="L47" s="41"/>
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
@@ -2485,13 +2485,13 @@
       <c r="E48" s="15"/>
       <c r="G48" s="39"/>
       <c r="H48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="42" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -2501,11 +2501,11 @@
         <v>12</v>
       </c>
       <c r="E49" s="13"/>
-      <c r="G49" s="42"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
       <c r="J49" s="22"/>
-      <c r="L49" s="41" t="s">
+      <c r="L49" s="42" t="s">
         <v>93</v>
       </c>
       <c r="M49" s="12" t="s">
@@ -2527,10 +2527,10 @@
         <v>71</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J50" s="4"/>
       <c r="L50" s="39"/>
@@ -2543,7 +2543,7 @@
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="3" t="s">
         <v>32</v>
       </c>
@@ -2551,13 +2551,13 @@
       <c r="E51" s="4"/>
       <c r="G51" s="39"/>
       <c r="H51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="J51" s="4"/>
-      <c r="L51" s="42"/>
+      <c r="L51" s="40"/>
       <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
-      <c r="G52" s="40"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="23"/>
@@ -2605,7 +2605,7 @@
       <c r="O53" s="4"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="42"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="3" t="s">
         <v>32</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="42" t="s">
         <v>72</v>
       </c>
       <c r="H54" s="12" t="s">
@@ -2623,7 +2623,7 @@
         <v>152</v>
       </c>
       <c r="J54" s="13"/>
-      <c r="L54" s="40"/>
+      <c r="L54" s="41"/>
       <c r="M54" s="5" t="s">
         <v>32</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>16</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="G56" s="42"/>
+      <c r="G56" s="40"/>
       <c r="H56" s="3" t="s">
         <v>32</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>154</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="L56" s="41" t="s">
+      <c r="L56" s="42" t="s">
         <v>95</v>
       </c>
       <c r="M56" s="12" t="s">
@@ -2675,7 +2675,7 @@
       <c r="O56" s="13"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="3" t="s">
         <v>32</v>
       </c>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="8"/>
-      <c r="L58" s="42"/>
+      <c r="L58" s="40"/>
       <c r="M58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="O59" s="4"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="40"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="5" t="s">
         <v>32</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>19</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="G60" s="40"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="5" t="s">
         <v>32</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="L61" s="42"/>
+      <c r="L61" s="40"/>
       <c r="M61" s="3" t="s">
         <v>32</v>
       </c>
@@ -2785,7 +2785,7 @@
       <c r="O61" s="4"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C62" s="12" t="s">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="13"/>
-      <c r="G62" s="41" t="s">
+      <c r="G62" s="42" t="s">
         <v>76</v>
       </c>
       <c r="H62" s="12" t="s">
@@ -2837,19 +2837,19 @@
       <c r="O63" s="4"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
-      <c r="G64" s="42"/>
+      <c r="G64" s="40"/>
       <c r="H64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="4"/>
-      <c r="L64" s="42"/>
+      <c r="L64" s="40"/>
       <c r="M64" s="3" t="s">
         <v>32</v>
       </c>
@@ -2899,19 +2899,19 @@
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="42"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
-      <c r="G67" s="42"/>
+      <c r="G67" s="40"/>
       <c r="H67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
-      <c r="L67" s="41" t="s">
+      <c r="L67" s="42" t="s">
         <v>99</v>
       </c>
       <c r="M67" s="12" t="s">
@@ -2965,7 +2965,7 @@
         <v>112</v>
       </c>
       <c r="J69" s="4"/>
-      <c r="L69" s="42"/>
+      <c r="L69" s="40"/>
       <c r="M69" s="3" t="s">
         <v>32</v>
       </c>
@@ -2975,13 +2975,13 @@
       <c r="O69" s="4"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="42"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
-      <c r="G70" s="40"/>
+      <c r="G70" s="41"/>
       <c r="H70" s="5" t="s">
         <v>32</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>20</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="G72" s="41" t="s">
+      <c r="G72" s="42" t="s">
         <v>79</v>
       </c>
       <c r="H72" s="12" t="s">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="13"/>
-      <c r="L72" s="42"/>
+      <c r="L72" s="40"/>
       <c r="M72" s="3" t="s">
         <v>32</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="O72" s="4"/>
     </row>
     <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="40"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="5" t="s">
         <v>32</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="G74" s="42"/>
+      <c r="G74" s="40"/>
       <c r="H74" s="3" t="s">
         <v>32</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="O74" s="4"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="42" t="s">
         <v>47</v>
       </c>
       <c r="C75" s="12" t="s">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
-      <c r="L75" s="40"/>
+      <c r="L75" s="41"/>
       <c r="M75" s="5" t="s">
         <v>32</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="42"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="3" t="s">
         <v>32</v>
       </c>
@@ -3131,13 +3131,13 @@
         <v>22</v>
       </c>
       <c r="E77" s="31"/>
-      <c r="G77" s="40"/>
+      <c r="G77" s="41"/>
       <c r="H77" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="6"/>
-      <c r="L77" s="41" t="s">
+      <c r="L77" s="42" t="s">
         <v>102</v>
       </c>
       <c r="M77" s="12" t="s">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
-      <c r="L79" s="42"/>
+      <c r="L79" s="40"/>
       <c r="M79" s="3" t="s">
         <v>32</v>
       </c>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="42"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="3" t="s">
         <v>32</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>144</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="L82" s="40"/>
+      <c r="L82" s="41"/>
       <c r="M82" s="5" t="s">
         <v>32</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="42"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="3" t="s">
         <v>32</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="L84" s="41" t="s">
+      <c r="L84" s="42" t="s">
         <v>104</v>
       </c>
       <c r="M84" s="12" t="s">
@@ -3291,7 +3291,7 @@
       <c r="O85" s="4"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="42"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="3" t="s">
         <v>32</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="4"/>
-      <c r="L86" s="42"/>
+      <c r="L86" s="40"/>
       <c r="M86" s="3" t="s">
         <v>32</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="O88" s="4"/>
     </row>
     <row r="89" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="42"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="3" t="s">
         <v>32</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>27</v>
       </c>
       <c r="E89" s="31"/>
-      <c r="L89" s="40"/>
+      <c r="L89" s="41"/>
       <c r="M89" s="5" t="s">
         <v>32</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>150</v>
       </c>
       <c r="E91" s="4"/>
-      <c r="L91" s="41" t="s">
+      <c r="L91" s="42" t="s">
         <v>105</v>
       </c>
       <c r="M91" s="12" t="s">
@@ -3387,7 +3387,7 @@
       <c r="O91" s="13"/>
     </row>
     <row r="92" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="40"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="5" t="s">
         <v>32</v>
       </c>
@@ -3405,7 +3405,7 @@
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L93" s="42"/>
+      <c r="L93" s="40"/>
       <c r="M93" s="3" t="s">
         <v>32</v>
       </c>
@@ -3433,7 +3433,7 @@
       </c>
     </row>
     <row r="96" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L96" s="40"/>
+      <c r="L96" s="41"/>
       <c r="M96" s="5" t="s">
         <v>32</v>
       </c>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="97" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L98" s="41" t="s">
+      <c r="L98" s="42" t="s">
         <v>107</v>
       </c>
       <c r="M98" s="12" t="s">
@@ -3460,7 +3460,7 @@
       <c r="O99" s="4"/>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L100" s="42"/>
+      <c r="L100" s="40"/>
       <c r="M100" s="3" t="s">
         <v>32</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="O102" s="4"/>
     </row>
     <row r="103" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L103" s="40"/>
+      <c r="L103" s="41"/>
       <c r="M103" s="5" t="s">
         <v>32</v>
       </c>
@@ -3495,11 +3495,60 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="L77:L79"/>
-    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="L94:L96"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="L42:L44"/>
     <mergeCell ref="B87:B89"/>
     <mergeCell ref="L84:L86"/>
     <mergeCell ref="L67:L69"/>
@@ -3516,62 +3565,13 @@
     <mergeCell ref="L62:L64"/>
     <mergeCell ref="G65:G67"/>
     <mergeCell ref="G68:G70"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="L77:L79"/>
+    <mergeCell ref="L80:L82"/>
     <mergeCell ref="G72:G74"/>
     <mergeCell ref="G75:G77"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="L94:L96"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="L101:L103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="68" orientation="portrait" r:id="rId1"/>

--- a/Maps/HOTAS Switch and Button - Quick Reference.xlsx
+++ b/Maps/HOTAS Switch and Button - Quick Reference.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="182">
   <si>
     <t>TG1</t>
   </si>
@@ -377,18 +377,9 @@
     <t>tgCargoScoop()</t>
   </si>
   <si>
-    <t>mTextCLEARChatBox</t>
-  </si>
-  <si>
     <t>fnRequestDock()</t>
   </si>
   <si>
-    <t>SetLED OFF</t>
-  </si>
-  <si>
-    <t>SetLED ON</t>
-  </si>
-  <si>
     <t>fnDeploySRV()</t>
   </si>
   <si>
@@ -500,15 +491,6 @@
     <t>fnSetJoystickCurves(2)</t>
   </si>
   <si>
-    <t>fnSliderCurve(0)</t>
-  </si>
-  <si>
-    <t>fnSliderCurve(1)</t>
-  </si>
-  <si>
-    <t>fnSliderCurve(2)</t>
-  </si>
-  <si>
     <t>Enter Hanger?</t>
   </si>
   <si>
@@ -567,6 +549,27 @@
   </si>
   <si>
     <t>HOTAS - Quick reference - v4.2.0</t>
+  </si>
+  <si>
+    <t>mClearAllChatBox</t>
+  </si>
+  <si>
+    <t>mClearChatBox</t>
+  </si>
+  <si>
+    <t>fnVoiceVolume(INCREASE)</t>
+  </si>
+  <si>
+    <t>Galaxy Map</t>
+  </si>
+  <si>
+    <t>fnVoiceVolume(DECREASE)</t>
+  </si>
+  <si>
+    <t>SystemMap</t>
+  </si>
+  <si>
+    <t>SetLED OFF/ON</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -977,11 +980,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1094,20 +1110,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,6 +1149,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,19 +1164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1430,8 +1455,8 @@
   </sheetPr>
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,43 +1481,43 @@
   <sheetData>
     <row r="1" spans="2:15" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
+      <c r="B2" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="G4" s="46" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="G4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-      <c r="L4" s="46" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="L4" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
@@ -1547,21 +1572,21 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
-      <c r="G7" s="43" t="s">
-        <v>135</v>
+      <c r="G7" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="32"/>
       <c r="J7" s="21"/>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="43" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="12" t="s">
@@ -1571,45 +1596,45 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="G8" s="49"/>
       <c r="H8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J8" s="22"/>
-      <c r="L8" s="39"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="3"/>
       <c r="I9" s="33"/>
       <c r="J9" s="23"/>
-      <c r="L9" s="40"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1617,23 +1642,23 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>136</v>
+        <v>164</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="32"/>
       <c r="J10" s="21"/>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="40" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1643,47 +1668,47 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="44"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="28" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="L11" s="39"/>
+      <c r="L11" s="41"/>
       <c r="M11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="44"/>
+        <v>166</v>
+      </c>
+      <c r="G12" s="49"/>
       <c r="H12" s="3"/>
       <c r="I12" s="33"/>
       <c r="J12" s="23"/>
-      <c r="L12" s="40"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1691,7 +1716,7 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1699,13 +1724,13 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
-      <c r="G13" s="44" t="s">
-        <v>137</v>
+      <c r="G13" s="49" t="s">
+        <v>134</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="32"/>
       <c r="J13" s="21"/>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="40" t="s">
         <v>83</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1715,41 +1740,41 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="24"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="L14" s="39"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="6"/>
-      <c r="G15" s="45"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="27"/>
       <c r="I15" s="33"/>
       <c r="J15" s="23"/>
-      <c r="L15" s="41"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1767,7 +1792,7 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1777,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="48" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -1785,7 +1810,7 @@
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="43" t="s">
         <v>84</v>
       </c>
       <c r="M17" s="12" t="s">
@@ -1795,7 +1820,7 @@
       <c r="O17" s="13"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1803,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1811,7 +1836,7 @@
         <v>59</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="L18" s="39"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1846,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1829,7 +1854,7 @@
       <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1837,7 +1862,7 @@
         <v>60</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="L19" s="40"/>
+      <c r="L19" s="44"/>
       <c r="M19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1853,7 +1878,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="40" t="s">
         <v>85</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1863,15 +1888,15 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="43" t="s">
-        <v>132</v>
+      <c r="B21" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="48" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="29" t="s">
@@ -1879,7 +1904,7 @@
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="30"/>
-      <c r="L21" s="39"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1889,17 +1914,17 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="G22" s="49"/>
       <c r="H22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1932,7 @@
         <v>62</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="L22" s="41"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="5" t="s">
         <v>32</v>
       </c>
@@ -1915,37 +1940,37 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="45"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="43" t="s">
         <v>86</v>
       </c>
       <c r="M24" s="12" t="s">
@@ -1955,15 +1980,15 @@
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="43" t="s">
         <v>63</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -1971,7 +1996,7 @@
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="13"/>
-      <c r="L25" s="39"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1981,25 +2006,25 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="39"/>
+        <v>166</v>
+      </c>
+      <c r="G26" s="41"/>
       <c r="H26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="L26" s="40"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="3" t="s">
         <v>32</v>
       </c>
@@ -2011,13 +2036,13 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="40" t="s">
         <v>87</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -2027,15 +2052,15 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
-        <v>133</v>
+      <c r="B28" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="21"/>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="40" t="s">
         <v>64</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -2043,7 +2068,7 @@
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="L28" s="39"/>
+      <c r="L28" s="41"/>
       <c r="M28" s="3" t="s">
         <v>31</v>
       </c>
@@ -2053,23 +2078,23 @@
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="39"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E29" s="22"/>
-      <c r="G29" s="39"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="L29" s="41"/>
+      <c r="L29" s="42"/>
       <c r="M29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2077,13 +2102,13 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="23"/>
-      <c r="G30" s="40"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2095,7 +2120,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="40" t="s">
         <v>65</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -2103,17 +2128,19 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="L31" s="42" t="s">
+      <c r="L31" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" s="12"/>
-      <c r="O31" s="13"/>
+      <c r="M31" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -2121,7 +2148,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="13"/>
-      <c r="G32" s="39"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="3" t="s">
         <v>31</v>
       </c>
@@ -2129,17 +2156,17 @@
         <v>109</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="L32" s="39"/>
+      <c r="L32" s="41"/>
       <c r="M32" s="3" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="39"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="3" t="s">
         <v>31</v>
       </c>
@@ -2147,27 +2174,25 @@
         <v>5</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="G33" s="40"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="6"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="23"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="41"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -2181,7 +2206,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="G35" s="39"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="3" t="s">
         <v>31</v>
       </c>
@@ -2189,7 +2214,7 @@
         <v>110</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="L35" s="42" t="s">
+      <c r="L35" s="43" t="s">
         <v>89</v>
       </c>
       <c r="M35" s="12" t="s">
@@ -2199,7 +2224,7 @@
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -2209,23 +2234,23 @@
         <v>6</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="G36" s="41"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6"/>
-      <c r="L36" s="39"/>
+      <c r="L36" s="41"/>
       <c r="M36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="39"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="3" t="s">
         <v>31</v>
       </c>
@@ -2233,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="L37" s="41"/>
+      <c r="L37" s="42"/>
       <c r="M37" s="5" t="s">
         <v>32</v>
       </c>
@@ -2241,7 +2266,7 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2249,19 +2274,19 @@
         <v>8</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="43" t="s">
         <v>67</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2269,23 +2294,25 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
-      <c r="G39" s="39"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="L39" s="42" t="s">
+      <c r="L39" s="43" t="s">
         <v>90</v>
       </c>
       <c r="M39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="12"/>
+      <c r="N39" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="3" t="s">
         <v>31</v>
       </c>
@@ -2293,37 +2320,37 @@
         <v>9</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="G40" s="40"/>
+      <c r="G40" s="44"/>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
       <c r="J40" s="22"/>
-      <c r="L40" s="39"/>
+      <c r="L40" s="41"/>
       <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="40" t="s">
         <v>68</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J41" s="4"/>
-      <c r="L41" s="40"/>
+      <c r="L41" s="44"/>
       <c r="M41" s="3" t="s">
         <v>32</v>
       </c>
@@ -2331,7 +2358,7 @@
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2339,13 +2366,13 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
-      <c r="G42" s="39"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="L42" s="38" t="s">
+      <c r="L42" s="40" t="s">
         <v>91</v>
       </c>
       <c r="M42" s="3" t="s">
@@ -2355,7 +2382,7 @@
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="3" t="s">
         <v>31</v>
       </c>
@@ -2363,47 +2390,43 @@
         <v>10</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="G43" s="40"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
       <c r="J43" s="22"/>
-      <c r="L43" s="39"/>
+      <c r="L43" s="41"/>
       <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="N43" s="3"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="40" t="s">
         <v>69</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J44" s="4"/>
-      <c r="L44" s="40"/>
+      <c r="L44" s="44"/>
       <c r="M44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="N44" s="57"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2413,23 +2436,25 @@
         <v>11</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="G45" s="39"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
-      <c r="L45" s="38" t="s">
+      <c r="L45" s="40" t="s">
         <v>92</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N45" s="3"/>
+      <c r="N45" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="3" t="s">
         <v>31</v>
       </c>
@@ -2437,21 +2462,21 @@
         <v>11</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="G46" s="40"/>
+      <c r="G46" s="44"/>
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
       <c r="J46" s="22"/>
-      <c r="L46" s="39"/>
+      <c r="L46" s="41"/>
       <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="41"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="5" t="s">
         <v>32</v>
       </c>
@@ -2459,22 +2484,22 @@
         <v>11</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="L47" s="41"/>
+      <c r="L47" s="42"/>
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="O47" s="6"/>
     </row>
@@ -2483,15 +2508,15 @@
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="G48" s="39"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -2501,11 +2526,11 @@
         <v>12</v>
       </c>
       <c r="E49" s="13"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="44"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
       <c r="J49" s="22"/>
-      <c r="L49" s="42" t="s">
+      <c r="L49" s="43" t="s">
         <v>93</v>
       </c>
       <c r="M49" s="12" t="s">
@@ -2515,7 +2540,7 @@
       <c r="O49" s="13"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="39"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="3" t="s">
         <v>31</v>
       </c>
@@ -2523,41 +2548,41 @@
         <v>13</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="40" t="s">
         <v>71</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="J50" s="4"/>
-      <c r="L50" s="39"/>
+      <c r="L50" s="41"/>
       <c r="M50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="40"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
-      <c r="G51" s="39"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J51" s="4"/>
-      <c r="L51" s="40"/>
+      <c r="L51" s="44"/>
       <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
@@ -2565,7 +2590,7 @@
       <c r="O51" s="4"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -2573,11 +2598,11 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
-      <c r="G52" s="41"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="23"/>
-      <c r="L52" s="38" t="s">
+      <c r="L52" s="40" t="s">
         <v>94</v>
       </c>
       <c r="M52" s="3" t="s">
@@ -2587,7 +2612,7 @@
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="39"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="3" t="s">
         <v>31</v>
       </c>
@@ -2595,17 +2620,17 @@
         <v>14</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="L53" s="39"/>
+      <c r="L53" s="41"/>
       <c r="M53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O53" s="4"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="3" t="s">
         <v>32</v>
       </c>
@@ -2613,17 +2638,17 @@
         <v>15</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="43" t="s">
         <v>72</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J54" s="13"/>
-      <c r="L54" s="41"/>
+      <c r="L54" s="42"/>
       <c r="M54" s="5" t="s">
         <v>32</v>
       </c>
@@ -2631,7 +2656,7 @@
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="40" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2639,17 +2664,17 @@
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
-      <c r="G55" s="39"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="3" t="s">
         <v>31</v>
       </c>
@@ -2657,15 +2682,15 @@
         <v>16</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="G56" s="40"/>
+      <c r="G56" s="44"/>
       <c r="H56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="L56" s="42" t="s">
+      <c r="L56" s="43" t="s">
         <v>95</v>
       </c>
       <c r="M56" s="12" t="s">
@@ -2675,7 +2700,7 @@
       <c r="O56" s="13"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="40"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="3" t="s">
         <v>32</v>
       </c>
@@ -2688,20 +2713,20 @@
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J57" s="4"/>
-      <c r="L57" s="39"/>
+      <c r="L57" s="41"/>
       <c r="M57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O57" s="4"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2709,7 +2734,7 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
-      <c r="G58" s="39" t="s">
+      <c r="G58" s="41" t="s">
         <v>74</v>
       </c>
       <c r="H58" s="7" t="s">
@@ -2717,7 +2742,7 @@
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="8"/>
-      <c r="L58" s="40"/>
+      <c r="L58" s="44"/>
       <c r="M58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2725,7 +2750,7 @@
       <c r="O58" s="4"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="39"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="3" t="s">
         <v>31</v>
       </c>
@@ -2733,7 +2758,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="G59" s="39"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="3" t="s">
         <v>31</v>
       </c>
@@ -2741,7 +2766,7 @@
         <v>75</v>
       </c>
       <c r="J59" s="4"/>
-      <c r="L59" s="38" t="s">
+      <c r="L59" s="40" t="s">
         <v>96</v>
       </c>
       <c r="M59" s="3" t="s">
@@ -2751,7 +2776,7 @@
       <c r="O59" s="4"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="41"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="5" t="s">
         <v>32</v>
       </c>
@@ -2759,13 +2784,13 @@
         <v>19</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="G60" s="41"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="6"/>
-      <c r="L60" s="39"/>
+      <c r="L60" s="41"/>
       <c r="M60" s="3" t="s">
         <v>31</v>
       </c>
@@ -2777,7 +2802,7 @@
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="L61" s="40"/>
+      <c r="L61" s="44"/>
       <c r="M61" s="3" t="s">
         <v>32</v>
       </c>
@@ -2785,7 +2810,7 @@
       <c r="O61" s="4"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C62" s="12" t="s">
@@ -2793,7 +2818,7 @@
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="13"/>
-      <c r="G62" s="42" t="s">
+      <c r="G62" s="43" t="s">
         <v>76</v>
       </c>
       <c r="H62" s="12" t="s">
@@ -2801,7 +2826,7 @@
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="13"/>
-      <c r="L62" s="38" t="s">
+      <c r="L62" s="40" t="s">
         <v>97</v>
       </c>
       <c r="M62" s="3" t="s">
@@ -2811,7 +2836,7 @@
       <c r="O62" s="4"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="39"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="3" t="s">
         <v>31</v>
       </c>
@@ -2819,7 +2844,7 @@
         <v>20</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="G63" s="39"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="3" t="s">
         <v>31</v>
       </c>
@@ -2827,29 +2852,29 @@
         <v>111</v>
       </c>
       <c r="J63" s="4"/>
-      <c r="L63" s="39"/>
+      <c r="L63" s="41"/>
       <c r="M63" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O63" s="4"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="40"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
-      <c r="G64" s="40"/>
+      <c r="G64" s="44"/>
       <c r="H64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="4"/>
-      <c r="L64" s="40"/>
+      <c r="L64" s="44"/>
       <c r="M64" s="3" t="s">
         <v>32</v>
       </c>
@@ -2857,7 +2882,7 @@
       <c r="O64" s="4"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="40" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2865,7 +2890,7 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
-      <c r="G65" s="38" t="s">
+      <c r="G65" s="40" t="s">
         <v>77</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -2878,12 +2903,12 @@
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O65" s="6"/>
     </row>
     <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="39"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="3" t="s">
         <v>31</v>
       </c>
@@ -2891,7 +2916,7 @@
         <v>20</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="G66" s="39"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="3" t="s">
         <v>31</v>
       </c>
@@ -2899,31 +2924,31 @@
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="40"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
-      <c r="G67" s="40"/>
+      <c r="G67" s="44"/>
       <c r="H67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
-      <c r="L67" s="42" t="s">
+      <c r="L67" s="43" t="s">
         <v>99</v>
       </c>
       <c r="M67" s="12" t="s">
         <v>30</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O67" s="13"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2931,7 +2956,7 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="40" t="s">
         <v>78</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -2939,17 +2964,17 @@
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="4"/>
-      <c r="L68" s="39"/>
+      <c r="L68" s="41"/>
       <c r="M68" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O68" s="4"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="39"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="3" t="s">
         <v>31</v>
       </c>
@@ -2957,7 +2982,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="4"/>
-      <c r="G69" s="39"/>
+      <c r="G69" s="41"/>
       <c r="H69" s="3" t="s">
         <v>31</v>
       </c>
@@ -2965,29 +2990,29 @@
         <v>112</v>
       </c>
       <c r="J69" s="4"/>
-      <c r="L69" s="40"/>
+      <c r="L69" s="44"/>
       <c r="M69" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O69" s="4"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="40"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
-      <c r="G70" s="41"/>
+      <c r="G70" s="42"/>
       <c r="H70" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="38" t="s">
+      <c r="L70" s="40" t="s">
         <v>100</v>
       </c>
       <c r="M70" s="3" t="s">
@@ -2997,7 +3022,7 @@
       <c r="O70" s="4"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -3005,7 +3030,7 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
-      <c r="L71" s="39"/>
+      <c r="L71" s="41"/>
       <c r="M71" s="3" t="s">
         <v>31</v>
       </c>
@@ -3013,7 +3038,7 @@
       <c r="O71" s="4"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="39"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="3" t="s">
         <v>31</v>
       </c>
@@ -3021,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="G72" s="42" t="s">
+      <c r="G72" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H72" s="12" t="s">
@@ -3029,7 +3054,7 @@
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="13"/>
-      <c r="L72" s="40"/>
+      <c r="L72" s="44"/>
       <c r="M72" s="3" t="s">
         <v>32</v>
       </c>
@@ -3037,13 +3062,13 @@
       <c r="O72" s="4"/>
     </row>
     <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="41"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
-      <c r="G73" s="39"/>
+      <c r="G73" s="41"/>
       <c r="H73" s="3" t="s">
         <v>31</v>
       </c>
@@ -3051,7 +3076,7 @@
         <v>113</v>
       </c>
       <c r="J73" s="4"/>
-      <c r="L73" s="38" t="s">
+      <c r="L73" s="40" t="s">
         <v>101</v>
       </c>
       <c r="M73" s="3" t="s">
@@ -3065,13 +3090,13 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="G74" s="40"/>
+      <c r="G74" s="44"/>
       <c r="H74" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="4"/>
-      <c r="L74" s="39"/>
+      <c r="L74" s="41"/>
       <c r="M74" s="3" t="s">
         <v>31</v>
       </c>
@@ -3079,7 +3104,7 @@
       <c r="O74" s="4"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C75" s="12" t="s">
@@ -3089,7 +3114,7 @@
         <v>21</v>
       </c>
       <c r="E75" s="13"/>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="40" t="s">
         <v>80</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -3097,7 +3122,7 @@
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
-      <c r="L75" s="41"/>
+      <c r="L75" s="42"/>
       <c r="M75" s="5" t="s">
         <v>32</v>
       </c>
@@ -3105,7 +3130,7 @@
       <c r="O75" s="6"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="39"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="3" t="s">
         <v>31</v>
       </c>
@@ -3113,7 +3138,7 @@
         <v>21</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="G76" s="39"/>
+      <c r="G76" s="41"/>
       <c r="H76" s="3" t="s">
         <v>31</v>
       </c>
@@ -3123,7 +3148,7 @@
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="3" t="s">
         <v>32</v>
       </c>
@@ -3131,26 +3156,26 @@
         <v>22</v>
       </c>
       <c r="E77" s="31"/>
-      <c r="G77" s="41"/>
+      <c r="G77" s="42"/>
       <c r="H77" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="6"/>
-      <c r="L77" s="42" t="s">
+      <c r="L77" s="43" t="s">
         <v>102</v>
       </c>
       <c r="M77" s="12" t="s">
         <v>30</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O77" s="13"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="40" t="s">
         <v>48</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -3159,18 +3184,18 @@
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
-      <c r="L78" s="39"/>
+      <c r="L78" s="41"/>
       <c r="M78" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O78" s="4"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="39"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="3" t="s">
         <v>31</v>
       </c>
@@ -3179,18 +3204,18 @@
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
-      <c r="L79" s="40"/>
+      <c r="L79" s="44"/>
       <c r="M79" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O79" s="4"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="40"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="3" t="s">
         <v>32</v>
       </c>
@@ -3199,7 +3224,7 @@
       </c>
       <c r="E80" s="31"/>
       <c r="F80" s="2"/>
-      <c r="L80" s="38" t="s">
+      <c r="L80" s="40" t="s">
         <v>103</v>
       </c>
       <c r="M80" s="3" t="s">
@@ -3209,7 +3234,7 @@
       <c r="O80" s="4"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="40" t="s">
         <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -3217,7 +3242,7 @@
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
-      <c r="L81" s="39"/>
+      <c r="L81" s="41"/>
       <c r="M81" s="3" t="s">
         <v>31</v>
       </c>
@@ -3225,15 +3250,15 @@
       <c r="O81" s="4"/>
     </row>
     <row r="82" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="39"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="L82" s="41"/>
+      <c r="L82" s="42"/>
       <c r="M82" s="5" t="s">
         <v>32</v>
       </c>
@@ -3241,7 +3266,7 @@
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="40"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="3" t="s">
         <v>32</v>
       </c>
@@ -3251,8 +3276,8 @@
       <c r="E83" s="31"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84" s="38" t="s">
-        <v>142</v>
+      <c r="B84" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>30</v>
@@ -3261,37 +3286,37 @@
         <v>0</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="L84" s="42" t="s">
+      <c r="L84" s="43" t="s">
         <v>104</v>
       </c>
       <c r="M84" s="12" t="s">
         <v>30</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O84" s="13"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="39"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="L85" s="39"/>
+      <c r="L85" s="41"/>
       <c r="M85" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O85" s="4"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="40"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="3" t="s">
         <v>32</v>
       </c>
@@ -3299,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="4"/>
-      <c r="L86" s="40"/>
+      <c r="L86" s="44"/>
       <c r="M86" s="3" t="s">
         <v>32</v>
       </c>
@@ -3307,7 +3332,7 @@
       <c r="O86" s="4"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -3315,8 +3340,8 @@
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
-      <c r="L87" s="38" t="s">
-        <v>129</v>
+      <c r="L87" s="40" t="s">
+        <v>126</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>30</v>
@@ -3325,7 +3350,7 @@
       <c r="O87" s="4"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="39"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="3" t="s">
         <v>31</v>
       </c>
@@ -3333,7 +3358,7 @@
         <v>26</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="L88" s="39"/>
+      <c r="L88" s="41"/>
       <c r="M88" s="3" t="s">
         <v>31</v>
       </c>
@@ -3341,7 +3366,7 @@
       <c r="O88" s="4"/>
     </row>
     <row r="89" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="40"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="3" t="s">
         <v>32</v>
       </c>
@@ -3349,7 +3374,7 @@
         <v>27</v>
       </c>
       <c r="E89" s="31"/>
-      <c r="L89" s="41"/>
+      <c r="L89" s="42"/>
       <c r="M89" s="5" t="s">
         <v>32</v>
       </c>
@@ -3357,27 +3382,27 @@
       <c r="O89" s="6"/>
     </row>
     <row r="90" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="39"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E91" s="4"/>
-      <c r="L91" s="42" t="s">
+      <c r="L91" s="43" t="s">
         <v>105</v>
       </c>
       <c r="M91" s="12" t="s">
@@ -3387,25 +3412,25 @@
       <c r="O91" s="13"/>
     </row>
     <row r="92" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="41"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E92" s="6"/>
-      <c r="L92" s="39"/>
+      <c r="L92" s="41"/>
       <c r="M92" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N92" s="3"/>
       <c r="O92" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L93" s="40"/>
+      <c r="L93" s="44"/>
       <c r="M93" s="3" t="s">
         <v>32</v>
       </c>
@@ -3413,7 +3438,7 @@
       <c r="O93" s="4"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L94" s="38" t="s">
+      <c r="L94" s="40" t="s">
         <v>106</v>
       </c>
       <c r="M94" s="3" t="s">
@@ -3423,17 +3448,17 @@
       <c r="O94" s="4"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L95" s="39"/>
+      <c r="L95" s="41"/>
       <c r="M95" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L96" s="41"/>
+      <c r="L96" s="42"/>
       <c r="M96" s="5" t="s">
         <v>32</v>
       </c>
@@ -3442,7 +3467,7 @@
     </row>
     <row r="97" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L98" s="42" t="s">
+      <c r="L98" s="43" t="s">
         <v>107</v>
       </c>
       <c r="M98" s="12" t="s">
@@ -3452,7 +3477,7 @@
       <c r="O98" s="13"/>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L99" s="39"/>
+      <c r="L99" s="41"/>
       <c r="M99" s="3" t="s">
         <v>31</v>
       </c>
@@ -3460,7 +3485,7 @@
       <c r="O99" s="4"/>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L100" s="40"/>
+      <c r="L100" s="44"/>
       <c r="M100" s="3" t="s">
         <v>32</v>
       </c>
@@ -3468,7 +3493,7 @@
       <c r="O100" s="4"/>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L101" s="38" t="s">
+      <c r="L101" s="40" t="s">
         <v>108</v>
       </c>
       <c r="M101" s="3" t="s">
@@ -3478,7 +3503,7 @@
       <c r="O101" s="4"/>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L102" s="39"/>
+      <c r="L102" s="41"/>
       <c r="M102" s="3" t="s">
         <v>31</v>
       </c>
@@ -3486,7 +3511,7 @@
       <c r="O102" s="4"/>
     </row>
     <row r="103" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L103" s="41"/>
+      <c r="L103" s="42"/>
       <c r="M103" s="5" t="s">
         <v>32</v>
       </c>
@@ -3495,36 +3520,35 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="L94:L96"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="L84:L86"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="L77:L79"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G54:G56"/>
     <mergeCell ref="B90:B92"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G25:G27"/>
@@ -3539,39 +3563,40 @@
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B83"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="L10:L12"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="L84:L86"/>
-    <mergeCell ref="L67:L69"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="L77:L79"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="L94:L96"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="L101:L103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="68" orientation="portrait" r:id="rId1"/>

--- a/Maps/HOTAS Switch and Button - Quick Reference.xlsx
+++ b/Maps/HOTAS Switch and Button - Quick Reference.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="220">
   <si>
     <t>TG1</t>
   </si>
@@ -59,12 +59,6 @@
     <t>tgLandingGear()</t>
   </si>
   <si>
-    <t>tgLights()</t>
-  </si>
-  <si>
-    <t>FBView</t>
-  </si>
-  <si>
     <t>SelectTargetAhead</t>
   </si>
   <si>
@@ -86,27 +80,15 @@
     <t>WingManNavlock</t>
   </si>
   <si>
-    <t>Pip Management</t>
-  </si>
-  <si>
-    <t>fnAdvancedSCB()</t>
-  </si>
-  <si>
     <t>CameraZoomIN</t>
   </si>
   <si>
-    <t>DeployHeatSink</t>
-  </si>
-  <si>
     <t>CameraZoomOUT</t>
   </si>
   <si>
     <t>CameraBlurOUT</t>
   </si>
   <si>
-    <t>FireChaffLauncher</t>
-  </si>
-  <si>
     <t>CameraBlurIN</t>
   </si>
   <si>
@@ -350,9 +332,6 @@
     <t>IDLELON</t>
   </si>
   <si>
-    <t>IDLEOFF</t>
-  </si>
-  <si>
     <t>SelectNextSystemInRoute</t>
   </si>
   <si>
@@ -365,54 +344,18 @@
     <t>mReportCrimesToggle</t>
   </si>
   <si>
-    <t>SelectNextSubsystem</t>
-  </si>
-  <si>
-    <t>SelectPrevSubsystem</t>
-  </si>
-  <si>
-    <t>tgSilentRunning()</t>
-  </si>
-  <si>
-    <t>tgCargoScoop()</t>
-  </si>
-  <si>
     <t>fnRequestDock()</t>
   </si>
   <si>
-    <t>fnDeploySRV()</t>
-  </si>
-  <si>
-    <t>SRVRecallDissmissShip</t>
-  </si>
-  <si>
     <t>HideShipGUI</t>
   </si>
   <si>
-    <t>fnWaitStart() - FORCE</t>
-  </si>
-  <si>
-    <t>fnWaitStart() -  CHECK</t>
-  </si>
-  <si>
     <t>fnSetLEDs()</t>
   </si>
   <si>
-    <t>fnDebugStates - DEBUG=ON</t>
-  </si>
-  <si>
-    <t>fnDebugStates - DEBUG=OFF</t>
-  </si>
-  <si>
     <t>EFLOVER</t>
   </si>
   <si>
-    <t>tgWarpDrive() -  Supercruise</t>
-  </si>
-  <si>
-    <t>tgWarpDrive() - Hyperjump</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -452,18 +395,6 @@
     <t>ChargeECM (DOWN)</t>
   </si>
   <si>
-    <t>fnModeSwitch(OPEN)</t>
-  </si>
-  <si>
-    <t>fnModeSwitch(PG)</t>
-  </si>
-  <si>
-    <t>fnModeSwitch(SOLO)</t>
-  </si>
-  <si>
-    <t>External Camera</t>
-  </si>
-  <si>
     <t>fnPIPMode(0)</t>
   </si>
   <si>
@@ -482,51 +413,18 @@
     <t>tgReverseThrust(2)</t>
   </si>
   <si>
-    <t>fnSetJoystickCurves(0)</t>
-  </si>
-  <si>
-    <t>fnSetJoystickCurves(1)</t>
-  </si>
-  <si>
-    <t>fnSetJoystickCurves(2)</t>
-  </si>
-  <si>
-    <t>Enter Hanger?</t>
-  </si>
-  <si>
-    <t>Launch?</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>Push to Talk</t>
-  </si>
-  <si>
-    <t>fnChannelSelect(UP)</t>
-  </si>
-  <si>
-    <t>fnChannelSelect(DOWN)</t>
-  </si>
-  <si>
-    <t>tgPTTMode()</t>
-  </si>
-  <si>
-    <t>fnCommsStatus()</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
     <t>PWS</t>
   </si>
   <si>
-    <t>Discovery</t>
-  </si>
-  <si>
     <t>IU</t>
   </si>
   <si>
@@ -545,9 +443,6 @@
     <t>OD</t>
   </si>
   <si>
-    <t>tgTriggerDelay</t>
-  </si>
-  <si>
     <t>HOTAS - Quick reference - v4.2.0</t>
   </si>
   <si>
@@ -569,7 +464,226 @@
     <t>SystemMap</t>
   </si>
   <si>
-    <t>SetLED OFF/ON</t>
+    <t>fnAdvFireControl(0)</t>
+  </si>
+  <si>
+    <t>fnAdvFireControl(1)</t>
+  </si>
+  <si>
+    <t>Disco/Mining</t>
+  </si>
+  <si>
+    <t>fnAdvFireControl(2)</t>
+  </si>
+  <si>
+    <t>fnAdvFireControl(3)</t>
+  </si>
+  <si>
+    <t>tgTriggerMode(2)</t>
+  </si>
+  <si>
+    <t>tgTriggerMode(1)</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>tgLights(1)</t>
+  </si>
+  <si>
+    <t>Night Vision</t>
+  </si>
+  <si>
+    <t>tgLights(0)</t>
+  </si>
+  <si>
+    <t>tgPlanetView()</t>
+  </si>
+  <si>
+    <t>fnPIPManager(ENG)</t>
+  </si>
+  <si>
+    <t>BalancePower</t>
+  </si>
+  <si>
+    <t>fnPIPManager(SYS)</t>
+  </si>
+  <si>
+    <t>fnPIPManager(WEP)</t>
+  </si>
+  <si>
+    <t>fnAdvancedSCB(2)</t>
+  </si>
+  <si>
+    <t>2xSCB, 1xHS</t>
+  </si>
+  <si>
+    <t>fnAdvancedSCB(0)/(1)</t>
+  </si>
+  <si>
+    <t>SCB, SCB+HS</t>
+  </si>
+  <si>
+    <t>fnHeatsink()</t>
+  </si>
+  <si>
+    <t>Charge ECM</t>
+  </si>
+  <si>
+    <t>Fire ECM</t>
+  </si>
+  <si>
+    <t>fnChaff()</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Increment</t>
+  </si>
+  <si>
+    <t>Decrement</t>
+  </si>
+  <si>
+    <t>tgExtCamera()</t>
+  </si>
+  <si>
+    <t>Supercruise</t>
+  </si>
+  <si>
+    <t>tgWarpDrive(0)</t>
+  </si>
+  <si>
+    <t>tgWarpDrive(1)</t>
+  </si>
+  <si>
+    <t>Hyperjump</t>
+  </si>
+  <si>
+    <t>No Speedbrake</t>
+  </si>
+  <si>
+    <t>Speedbrake</t>
+  </si>
+  <si>
+    <t>fix LED</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>tgText2Speech()</t>
+  </si>
+  <si>
+    <t>EnableVoice ON/OFF</t>
+  </si>
+  <si>
+    <t>TargetNextSubsystem</t>
+  </si>
+  <si>
+    <t>TargetPrevSubsystem</t>
+  </si>
+  <si>
+    <t>fnSetJoystickCurves(NONE)</t>
+  </si>
+  <si>
+    <t>fnSetJoystickCurves(MILD)</t>
+  </si>
+  <si>
+    <t>fnSetJoystickCurves(MEDIUM)</t>
+  </si>
+  <si>
+    <t>tgSilentRunning(ON)</t>
+  </si>
+  <si>
+    <t>tgSilentRunning(OFF)</t>
+  </si>
+  <si>
+    <t>tgCargoScoop(DEPLOY)</t>
+  </si>
+  <si>
+    <t>tgCargoScoop(RETRACT)</t>
+  </si>
+  <si>
+    <t>fnHangerServices(1)</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>FLAPU-R</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>FLAPD-R</t>
+  </si>
+  <si>
+    <t>SetLED OFF</t>
+  </si>
+  <si>
+    <t>SetLED ON</t>
+  </si>
+  <si>
+    <t>fnDeploySRV(DEPLOY)</t>
+  </si>
+  <si>
+    <t>fnDeploySRV(RECOVER)</t>
+  </si>
+  <si>
+    <t>fnDRShip()</t>
+  </si>
+  <si>
+    <t>Dismiss/Recover</t>
+  </si>
+  <si>
+    <t>GUI OFF</t>
+  </si>
+  <si>
+    <t>GUI ON</t>
+  </si>
+  <si>
+    <t>fnModeSwitch(0)</t>
+  </si>
+  <si>
+    <t>fnModeSwitch(1)</t>
+  </si>
+  <si>
+    <t>fnModeSwitch(2)</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Private Group</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>GameLoaded = 0</t>
+  </si>
+  <si>
+    <t>Reset Status LEDs</t>
+  </si>
+  <si>
+    <t>fnDebugStates(DebugON)</t>
+  </si>
+  <si>
+    <t>fnDebugStates(DebugOFF)</t>
+  </si>
+  <si>
+    <t>IDLELOFF</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>fnHangerServices(0)</t>
+  </si>
+  <si>
+    <t>Launch</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1116,6 +1230,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,15 +1254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,25 +1263,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1453,10 +1573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,91 +1590,91 @@
     <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="B2" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="G4" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="L4" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
+      <c r="B4" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="G4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="L4" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,61 +1692,61 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="48" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="32"/>
       <c r="J7" s="21"/>
-      <c r="L7" s="43" t="s">
-        <v>81</v>
+      <c r="L7" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="J8" s="22"/>
-      <c r="L8" s="41"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="3" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -1634,139 +1754,139 @@
       <c r="H9" s="3"/>
       <c r="I9" s="33"/>
       <c r="J9" s="23"/>
-      <c r="L9" s="44"/>
+      <c r="L9" s="47"/>
       <c r="M9" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="32"/>
       <c r="J10" s="21"/>
-      <c r="L10" s="40" t="s">
-        <v>82</v>
+      <c r="L10" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="3" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="49"/>
       <c r="H11" s="28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="L11" s="41"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="5" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="3"/>
       <c r="I12" s="33"/>
       <c r="J12" s="23"/>
-      <c r="L12" s="44"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="G13" s="49" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="32"/>
       <c r="J13" s="21"/>
-      <c r="L13" s="40" t="s">
-        <v>83</v>
+      <c r="L13" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="24"/>
       <c r="G14" s="49"/>
       <c r="H14" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="L14" s="41"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="6"/>
@@ -1774,9 +1894,9 @@
       <c r="H15" s="27"/>
       <c r="I15" s="33"/>
       <c r="J15" s="23"/>
-      <c r="L15" s="42"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
@@ -1792,37 +1912,39 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
-        <v>33</v>
+      <c r="B17" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="13"/>
       <c r="G17" s="48" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="J17" s="13"/>
-      <c r="L17" s="43" t="s">
-        <v>84</v>
+      <c r="L17" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
@@ -1830,41 +1952,39 @@
       <c r="E18" s="4"/>
       <c r="G18" s="49"/>
       <c r="H18" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="L18" s="41"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="42"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="6"/>
-      <c r="L19" s="44"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="4"/>
@@ -1878,63 +1998,65 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="L20" s="40" t="s">
-        <v>85</v>
+      <c r="L20" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="G21" s="48" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="29"/>
+        <v>24</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>173</v>
+      </c>
       <c r="J21" s="30"/>
-      <c r="L21" s="41"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="49"/>
       <c r="C22" s="3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="L22" s="42"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="6"/>
@@ -1942,39 +2064,37 @@
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="49"/>
       <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="G23" s="50"/>
       <c r="H23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I23" s="5"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="L24" s="43" t="s">
-        <v>86</v>
+      <c r="L24" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="13"/>
@@ -1982,51 +2102,53 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="49"/>
       <c r="C25" s="3" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="G25" s="43" t="s">
-        <v>63</v>
+      <c r="G25" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="13"/>
-      <c r="L25" s="41"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="50"/>
       <c r="C26" s="5" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="41"/>
+        <v>148</v>
+      </c>
+      <c r="G26" s="44"/>
       <c r="H26" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="L26" s="44"/>
+        <v>175</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="47"/>
       <c r="M26" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="4"/>
@@ -2036,81 +2158,83 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="G27" s="44"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="L27" s="40" t="s">
-        <v>87</v>
+      <c r="L27" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="43" t="s">
-        <v>130</v>
+      <c r="B28" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="21"/>
-      <c r="G28" s="40" t="s">
-        <v>64</v>
+      <c r="G28" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="L28" s="41"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="44"/>
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>135</v>
-      </c>
       <c r="E29" s="22"/>
-      <c r="G29" s="41"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="L29" s="42"/>
+        <v>176</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="45"/>
       <c r="M29" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="42"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="23"/>
-      <c r="G30" s="44"/>
+      <c r="G30" s="47"/>
       <c r="H30" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
@@ -2120,83 +2244,83 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="G31" s="40" t="s">
-        <v>65</v>
+      <c r="G31" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="L31" s="43" t="s">
-        <v>88</v>
+      <c r="L31" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="N31" s="38" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="O31" s="39"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="43" t="s">
-        <v>34</v>
+      <c r="B32" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="13"/>
-      <c r="G32" s="41"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="L32" s="41"/>
+      <c r="L32" s="44"/>
       <c r="M32" s="3" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="G33" s="44"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="L33" s="42"/>
+      <c r="L33" s="45"/>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="23"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
-      <c r="G34" s="40" t="s">
-        <v>66</v>
+      <c r="G34" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
@@ -2206,1349 +2330,1453 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="G35" s="41"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="L35" s="43" t="s">
-        <v>89</v>
+      <c r="L35" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="43" t="s">
-        <v>35</v>
+      <c r="B36" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="G36" s="42"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6"/>
-      <c r="L36" s="41"/>
+      <c r="L36" s="44"/>
       <c r="M36" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="L37" s="42"/>
+      <c r="L37" s="45"/>
       <c r="M37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="44"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="G38" s="43" t="s">
-        <v>67</v>
+      <c r="G38" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>160</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I38" s="12"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="40" t="s">
-        <v>36</v>
+      <c r="B39" s="43" t="s">
+        <v>30</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
-      <c r="G39" s="41"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="3" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="L39" s="43" t="s">
-        <v>90</v>
+      <c r="L39" s="46" t="s">
+        <v>84</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="G40" s="44"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
       <c r="J40" s="22"/>
-      <c r="L40" s="41"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O40" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
-      <c r="G41" s="40" t="s">
-        <v>68</v>
+      <c r="G41" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>161</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="4"/>
-      <c r="L41" s="44"/>
+      <c r="L41" s="47"/>
       <c r="M41" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
-        <v>37</v>
+      <c r="B42" s="43" t="s">
+        <v>31</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
-      <c r="G42" s="41"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="3" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="L42" s="40" t="s">
-        <v>91</v>
+      <c r="L42" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="G43" s="44"/>
+      <c r="E43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="47"/>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
       <c r="J43" s="22"/>
-      <c r="L43" s="41"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="44"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
-      <c r="G44" s="40" t="s">
-        <v>69</v>
+      <c r="G44" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-      <c r="L44" s="44"/>
+      <c r="L44" s="47"/>
       <c r="M44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="N44" s="57"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="40" t="s">
-        <v>38</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="G45" s="41"/>
+        <v>154</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="44"/>
       <c r="H45" s="3" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
-      <c r="L45" s="40" t="s">
-        <v>92</v>
+      <c r="L45" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N45" s="3"/>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="G46" s="44"/>
+        <v>156</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="47"/>
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
       <c r="J46" s="22"/>
-      <c r="L46" s="41"/>
+      <c r="L46" s="44"/>
       <c r="M46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N46" s="3"/>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="42"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="6"/>
-      <c r="G47" s="40" t="s">
-        <v>70</v>
+      <c r="G47" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I47" s="3"/>
       <c r="J47" s="4"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O47" s="6"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="42"/>
+      <c r="O47" s="4"/>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="G48" s="41"/>
+      <c r="G48" s="44"/>
       <c r="H48" s="3" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
+      <c r="L48" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="43" t="s">
-        <v>39</v>
+      <c r="B49" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="E49" s="13"/>
-      <c r="G49" s="44"/>
+      <c r="G49" s="47"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
       <c r="J49" s="22"/>
-      <c r="L49" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="12"/>
-      <c r="O49" s="13"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="G50" s="40" t="s">
-        <v>71</v>
+      <c r="G50" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="L50" s="41"/>
+      <c r="L50" s="47"/>
       <c r="M50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>118</v>
+        <v>26</v>
+      </c>
+      <c r="N50" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="44"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E51" s="4"/>
-      <c r="G51" s="41"/>
+      <c r="G51" s="44"/>
       <c r="H51" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="L51" s="44"/>
+      <c r="L51" s="44" t="s">
+        <v>197</v>
+      </c>
       <c r="M51" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="4"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="40" t="s">
-        <v>40</v>
+      <c r="B52" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
-      <c r="G52" s="42"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="23"/>
-      <c r="L52" s="40" t="s">
-        <v>94</v>
-      </c>
+      <c r="L52" s="44"/>
       <c r="M52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="53" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O53" s="4"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O53" s="6"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="44"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="G54" s="43" t="s">
-        <v>72</v>
+      <c r="G54" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="J54" s="13"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="6"/>
-    </row>
-    <row r="55" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="40" t="s">
-        <v>41</v>
+        <v>126</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
-      <c r="G55" s="41"/>
+      <c r="G55" s="44"/>
       <c r="H55" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J55" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L55" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="12"/>
+      <c r="O55" s="13"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="41"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="G56" s="44"/>
+      <c r="G56" s="47"/>
       <c r="H56" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J56" s="4"/>
-      <c r="L56" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="M56" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N56" s="12"/>
-      <c r="O56" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L56" s="44"/>
+      <c r="M56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O56" s="4"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="44"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57" s="4"/>
       <c r="G57" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="L57" s="41"/>
+        <v>127</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L57" s="47"/>
       <c r="M57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N57" s="3"/>
       <c r="O57" s="4"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="40" t="s">
-        <v>42</v>
+      <c r="B58" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
-      <c r="G58" s="41" t="s">
-        <v>74</v>
+      <c r="G58" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="8"/>
-      <c r="L58" s="44"/>
+      <c r="L58" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="M58" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="4"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="G59" s="41"/>
+      <c r="G59" s="44"/>
       <c r="H59" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J59" s="4"/>
-      <c r="L59" s="40" t="s">
-        <v>96</v>
-      </c>
+      <c r="L59" s="44"/>
       <c r="M59" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N59" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="O59" s="4"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="42"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="G60" s="42"/>
+      <c r="G60" s="45"/>
       <c r="H60" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="6"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="4"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="6"/>
     </row>
     <row r="61" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="4"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="43" t="s">
-        <v>43</v>
+      <c r="B62" s="46" t="s">
+        <v>37</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="13"/>
-      <c r="G62" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13"/>
-      <c r="L62" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="4"/>
+      <c r="G62" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="41"/>
+      <c r="L62" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="12"/>
+      <c r="O62" s="13"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="G63" s="41"/>
+      <c r="G63" s="44"/>
       <c r="H63" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I63" s="15"/>
       <c r="J63" s="4"/>
-      <c r="L63" s="41"/>
+      <c r="L63" s="44"/>
       <c r="M63" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O63" s="4"/>
+        <v>202</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="44"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
-      <c r="G64" s="44"/>
+      <c r="G64" s="47"/>
       <c r="H64" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="4"/>
-      <c r="L64" s="44"/>
+        <v>26</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L64" s="47"/>
       <c r="M64" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="40" t="s">
-        <v>44</v>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
-      <c r="G65" s="40" t="s">
-        <v>77</v>
+      <c r="G65" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="4"/>
-      <c r="L65" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="O65" s="6"/>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="41"/>
+      <c r="L65" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="3"/>
+      <c r="O65" s="4"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="44"/>
       <c r="C66" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="G66" s="41"/>
+      <c r="G66" s="44"/>
       <c r="H66" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="4"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="44"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
-      <c r="G67" s="44"/>
+      <c r="G67" s="47"/>
       <c r="H67" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
-      <c r="L67" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="M67" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N67" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="O67" s="13"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="3"/>
+      <c r="O67" s="4"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="40" t="s">
-        <v>45</v>
+      <c r="B68" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
-      <c r="G68" s="40" t="s">
-        <v>78</v>
+      <c r="G68" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="J68" s="4"/>
-      <c r="L68" s="41"/>
+      <c r="L68" s="43" t="s">
+        <v>91</v>
+      </c>
       <c r="M68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N68" s="3"/>
       <c r="O68" s="4"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E69" s="4"/>
-      <c r="G69" s="41"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="J69" s="4"/>
       <c r="L69" s="44"/>
       <c r="M69" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O69" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="44"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
-      <c r="G70" s="42"/>
+      <c r="G70" s="45"/>
       <c r="H70" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="40" t="s">
-        <v>100</v>
-      </c>
+      <c r="L70" s="47"/>
       <c r="M70" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="4"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="40" t="s">
-        <v>46</v>
+      <c r="B71" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N71" s="3"/>
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="L71" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="44"/>
       <c r="C72" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="G72" s="43" t="s">
-        <v>79</v>
+      <c r="G72" s="46" t="s">
+        <v>73</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="13"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N72" s="3"/>
-      <c r="O72" s="4"/>
     </row>
     <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="42"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
-      <c r="G73" s="41"/>
+      <c r="G73" s="44"/>
       <c r="H73" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="J73" s="4"/>
-      <c r="L73" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N73" s="3"/>
-      <c r="O73" s="4"/>
+      <c r="L73" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O73" s="13" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="G74" s="44"/>
+      <c r="G74" s="47"/>
       <c r="H74" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="4"/>
-      <c r="L74" s="41"/>
+      <c r="L74" s="44"/>
       <c r="M74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N74" s="3"/>
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="43" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="G75" s="40" t="s">
-        <v>80</v>
+        <v>162</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="5"/>
-      <c r="O75" s="6"/>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="41"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="44"/>
       <c r="C76" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="G76" s="41"/>
+        <v>164</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" s="44"/>
       <c r="H76" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="J76" s="4"/>
+      <c r="L76" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" s="3"/>
+      <c r="O76" s="4"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="44"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E77" s="31"/>
-      <c r="G77" s="42"/>
+      <c r="G77" s="45"/>
       <c r="H77" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="6"/>
-      <c r="L77" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="M77" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N77" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="O77" s="13"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="3"/>
+      <c r="O77" s="4"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="40" t="s">
-        <v>48</v>
+      <c r="B78" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
-      <c r="L78" s="41"/>
+      <c r="L78" s="47"/>
       <c r="M78" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N78" s="3"/>
       <c r="O78" s="4"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="41"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
-      <c r="L79" s="44"/>
+      <c r="L79" s="43" t="s">
+        <v>95</v>
+      </c>
       <c r="M79" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N79" s="3"/>
       <c r="O79" s="4"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="44"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E80" s="31"/>
       <c r="F80" s="2"/>
-      <c r="L80" s="40" t="s">
-        <v>103</v>
-      </c>
+      <c r="L80" s="44"/>
       <c r="M80" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" s="40" t="s">
-        <v>49</v>
+    <row r="81" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N81" s="3"/>
-      <c r="O81" s="4"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="5"/>
+      <c r="O81" s="6"/>
     </row>
     <row r="82" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="41"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N82" s="5"/>
-      <c r="O82" s="6"/>
-    </row>
-    <row r="83" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="44"/>
+        <v>122</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="47"/>
       <c r="C83" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E83" s="31"/>
+      <c r="L83" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="12"/>
+      <c r="O83" s="13"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84" s="40" t="s">
-        <v>139</v>
+      <c r="B84" s="43" t="s">
+        <v>120</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D84" s="3">
         <v>0</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="L84" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="M84" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N84" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O84" s="13"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O84" s="4"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="L85" s="41"/>
+        <v>121</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L85" s="47"/>
       <c r="M85" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O85" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="44"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D86" s="3">
         <v>0</v>
       </c>
       <c r="E86" s="4"/>
-      <c r="L86" s="44"/>
+      <c r="L86" s="43" t="s">
+        <v>97</v>
+      </c>
       <c r="M86" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="4"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B87" s="40" t="s">
-        <v>50</v>
+      <c r="B87" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
-      <c r="L87" s="40" t="s">
-        <v>126</v>
-      </c>
+      <c r="L87" s="44"/>
       <c r="M87" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N87" s="3"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
+    <row r="88" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="44"/>
       <c r="C88" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N88" s="3"/>
-      <c r="O88" s="4"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="5"/>
+      <c r="O88" s="6"/>
     </row>
     <row r="89" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="44"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E89" s="31"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N89" s="5"/>
-      <c r="O89" s="6"/>
-    </row>
-    <row r="90" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="40" t="s">
-        <v>28</v>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E90" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L90" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O90" s="13"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="L91" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N91" s="12"/>
-      <c r="O91" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L91" s="44"/>
+      <c r="M91" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O91" s="4"/>
     </row>
     <row r="92" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="42"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="L92" s="41"/>
+        <v>125</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L92" s="47"/>
       <c r="M92" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N92" s="3"/>
-      <c r="O92" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="O92" s="4"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L93" s="44"/>
+      <c r="L93" s="43" t="s">
+        <v>109</v>
+      </c>
       <c r="M93" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="4"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L94" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="L94" s="44"/>
       <c r="M94" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="4"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L95" s="41"/>
-      <c r="M95" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N95" s="3"/>
-      <c r="O95" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L96" s="42"/>
-      <c r="M96" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N96" s="5"/>
-      <c r="O96" s="6"/>
-    </row>
-    <row r="97" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L95" s="45"/>
+      <c r="M95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="5"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L97" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97" s="12"/>
+      <c r="O97" s="13"/>
+    </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L98" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="M98" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N98" s="12"/>
-      <c r="O98" s="13"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L99" s="41"/>
+      <c r="L99" s="47"/>
       <c r="M99" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N99" s="3"/>
       <c r="O99" s="4"/>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L100" s="44"/>
+      <c r="L100" s="43" t="s">
+        <v>216</v>
+      </c>
       <c r="M100" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N100" s="3"/>
       <c r="O100" s="4"/>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L101" s="40" t="s">
-        <v>108</v>
-      </c>
+      <c r="L101" s="44"/>
       <c r="M101" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N101" s="3"/>
-      <c r="O101" s="4"/>
-    </row>
-    <row r="102" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L102" s="41"/>
-      <c r="M102" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N102" s="3"/>
-      <c r="O102" s="4"/>
-    </row>
-    <row r="103" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L103" s="42"/>
-      <c r="M103" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N103" s="5"/>
-      <c r="O103" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L102" s="45"/>
+      <c r="M102" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102" s="5"/>
+      <c r="O102" s="6"/>
+    </row>
+    <row r="103" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L104" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="M104" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N104" s="12"/>
+      <c r="O104" s="13"/>
+    </row>
+    <row r="105" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L105" s="44"/>
+      <c r="M105" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" s="3"/>
+      <c r="O105" s="4"/>
+    </row>
+    <row r="106" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L106" s="47"/>
+      <c r="M106" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N106" s="3"/>
+      <c r="O106" s="4"/>
+    </row>
+    <row r="107" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L107" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N107" s="3"/>
+      <c r="O107" s="4"/>
+    </row>
+    <row r="108" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L108" s="44"/>
+      <c r="M108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N108" s="3"/>
+      <c r="O108" s="4"/>
+    </row>
+    <row r="109" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L109" s="45"/>
+      <c r="M109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N109" s="5"/>
+      <c r="O109" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L39:L41"/>
+  <mergeCells count="79">
     <mergeCell ref="L42:L44"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="L84:L86"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="L77:L79"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="L93:L95"/>
+    <mergeCell ref="L97:L99"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="L107:L109"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B49:B51"/>
     <mergeCell ref="B90:B92"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G25:G27"/>
@@ -3565,40 +3793,40 @@
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="L90:L92"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="L58:L60"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="L79:L81"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G54:G56"/>
     <mergeCell ref="B62:B64"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="L55:L57"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
     <mergeCell ref="G58:G60"/>
     <mergeCell ref="G62:G64"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="L94:L96"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="L101:L103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="68" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Maps/HOTAS Switch and Button - Quick Reference.xlsx
+++ b/Maps/HOTAS Switch and Button - Quick Reference.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="224">
   <si>
     <t>TG1</t>
   </si>
@@ -161,9 +161,6 @@
     <t>H4R</t>
   </si>
   <si>
-    <t>Retract ALL?</t>
-  </si>
-  <si>
     <t>Throttle (stick)</t>
   </si>
   <si>
@@ -684,6 +681,21 @@
   </si>
   <si>
     <t>Launch</t>
+  </si>
+  <si>
+    <t>Alternate Roll Control (CCW)</t>
+  </si>
+  <si>
+    <t>Alternate Roll Control (CW)</t>
+  </si>
+  <si>
+    <t>Alternate Yaw Control (Left)</t>
+  </si>
+  <si>
+    <t>Alternate Yaw Control (Right)</t>
+  </si>
+  <si>
+    <t>SwapRollYaw</t>
   </si>
 </sst>
 </file>
@@ -1245,13 +1257,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1575,8 +1587,8 @@
   </sheetPr>
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1614,7 @@
     <row r="1" spans="2:15" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -1627,13 +1639,13 @@
       <c r="D4" s="58"/>
       <c r="E4" s="59"/>
       <c r="G4" s="57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
       <c r="J4" s="59"/>
       <c r="L4" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
@@ -1641,40 +1653,40 @@
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="L5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1696,18 +1708,18 @@
         <v>0</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="41"/>
       <c r="G7" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="32"/>
       <c r="J7" s="21"/>
-      <c r="L7" s="46" t="s">
-        <v>75</v>
+      <c r="L7" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>24</v>
@@ -1718,20 +1730,20 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="52"/>
       <c r="C8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J8" s="22"/>
       <c r="L8" s="44"/>
@@ -1739,14 +1751,14 @@
         <v>25</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52"/>
       <c r="C9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -1754,7 +1766,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="33"/>
       <c r="J9" s="23"/>
-      <c r="L9" s="47"/>
+      <c r="L9" s="45"/>
       <c r="M9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1764,22 +1776,22 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="52"/>
       <c r="C10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="32"/>
       <c r="J10" s="21"/>
       <c r="L10" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>24</v>
@@ -1790,10 +1802,10 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="52"/>
       <c r="C11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="49"/>
@@ -1801,7 +1813,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="22"/>
       <c r="L11" s="44"/>
@@ -1809,26 +1821,26 @@
         <v>25</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53"/>
       <c r="C12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="3"/>
       <c r="I12" s="33"/>
       <c r="J12" s="23"/>
-      <c r="L12" s="47"/>
+      <c r="L12" s="45"/>
       <c r="M12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1857,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="G13" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="32"/>
       <c r="J13" s="21"/>
       <c r="L13" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>24</v>
@@ -1871,7 +1883,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="22"/>
       <c r="L14" s="44"/>
@@ -1879,12 +1891,12 @@
         <v>25</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
@@ -1894,7 +1906,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="33"/>
       <c r="J15" s="23"/>
-      <c r="L15" s="45"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1912,7 +1924,7 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1923,17 +1935,17 @@
       </c>
       <c r="E17" s="13"/>
       <c r="G17" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="13"/>
-      <c r="L17" s="46" t="s">
-        <v>78</v>
+      <c r="L17" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>24</v>
@@ -1955,7 +1967,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" s="4"/>
       <c r="L18" s="44"/>
@@ -1963,26 +1975,26 @@
         <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="D19" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="G19" s="50"/>
       <c r="H19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
-      <c r="L19" s="47"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1999,7 +2011,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="L20" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>24</v>
@@ -2009,21 +2021,21 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="G21" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J21" s="30"/>
       <c r="L21" s="44"/>
@@ -2031,30 +2043,30 @@
         <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="49"/>
       <c r="C22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="L22" s="45"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="5" t="s">
         <v>26</v>
       </c>
@@ -2064,7 +2076,7 @@
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="49"/>
       <c r="C23" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -2078,20 +2090,20 @@
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="L24" s="46" t="s">
-        <v>80</v>
+      <c r="L24" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>24</v>
@@ -2102,14 +2114,14 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="49"/>
       <c r="C25" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="G25" s="46" t="s">
-        <v>57</v>
+      <c r="G25" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>24</v>
@@ -2121,32 +2133,32 @@
         <v>25</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="50"/>
       <c r="C26" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="47"/>
+        <v>173</v>
+      </c>
+      <c r="L26" s="45"/>
       <c r="M26" s="3" t="s">
         <v>26</v>
       </c>
@@ -2158,14 +2170,14 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="G27" s="47"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
       <c r="L27" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>24</v>
@@ -2174,8 +2186,8 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
-        <v>111</v>
+      <c r="B28" s="47" t="s">
+        <v>110</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>24</v>
@@ -2183,7 +2195,7 @@
       <c r="D28" s="32"/>
       <c r="E28" s="21"/>
       <c r="G28" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>24</v>
@@ -2195,7 +2207,7 @@
         <v>25</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O28" s="4"/>
     </row>
@@ -2205,7 +2217,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="22"/>
       <c r="G29" s="44"/>
@@ -2213,12 +2225,12 @@
         <v>25</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="5" t="s">
         <v>26</v>
       </c>
@@ -2226,13 +2238,13 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="23"/>
-      <c r="G30" s="47"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
@@ -2245,26 +2257,26 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="G31" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="L31" s="46" t="s">
-        <v>82</v>
+      <c r="L31" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N31" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O31" s="39"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -2277,15 +2289,15 @@
         <v>25</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J32" s="4"/>
       <c r="L32" s="44"/>
       <c r="M32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O32" s="4"/>
     </row>
@@ -2298,26 +2310,26 @@
         <v>5</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="G33" s="47"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="L33" s="45"/>
+      <c r="L33" s="46"/>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="23"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="G34" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>24</v>
@@ -2335,11 +2347,11 @@
         <v>25</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="L35" s="46" t="s">
-        <v>83</v>
+      <c r="L35" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>24</v>
@@ -2348,7 +2360,7 @@
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -2358,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="G36" s="45"/>
+      <c r="G36" s="46"/>
       <c r="H36" s="5" t="s">
         <v>26</v>
       </c>
@@ -2369,7 +2381,7 @@
         <v>25</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="4"/>
     </row>
@@ -2382,17 +2394,17 @@
         <v>9</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="L37" s="45"/>
+      <c r="L37" s="46"/>
       <c r="M37" s="5" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="3" t="s">
         <v>26</v>
       </c>
@@ -2400,11 +2412,11 @@
         <v>8</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="G38" s="46" t="s">
-        <v>61</v>
+      <c r="G38" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="13"/>
@@ -2420,18 +2432,20 @@
       <c r="E39" s="4"/>
       <c r="G39" s="44"/>
       <c r="H39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="J39" s="4"/>
-      <c r="L39" s="46" t="s">
-        <v>84</v>
+      <c r="L39" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="M39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O39" s="13"/>
     </row>
@@ -2444,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="G40" s="47"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
       <c r="J40" s="22"/>
@@ -2453,28 +2467,28 @@
         <v>25</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="47"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
       <c r="G41" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="4"/>
-      <c r="L41" s="47"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="3" t="s">
         <v>26</v>
       </c>
@@ -2492,12 +2506,14 @@
       <c r="E42" s="4"/>
       <c r="G42" s="44"/>
       <c r="H42" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I42" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="J42" s="4"/>
       <c r="L42" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>24</v>
@@ -2514,9 +2530,9 @@
         <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="47"/>
+        <v>152</v>
+      </c>
+      <c r="G43" s="45"/>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
       <c r="J43" s="22"/>
@@ -2525,28 +2541,28 @@
         <v>25</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="G44" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-      <c r="L44" s="47"/>
+      <c r="L44" s="45"/>
       <c r="M44" s="3" t="s">
         <v>26</v>
       </c>
@@ -2561,19 +2577,21 @@
         <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="G45" s="44"/>
       <c r="H45" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="J45" s="4"/>
       <c r="L45" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>24</v>
@@ -2587,12 +2605,12 @@
         <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="47"/>
+        <v>152</v>
+      </c>
+      <c r="G46" s="45"/>
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
       <c r="J46" s="22"/>
@@ -2604,21 +2622,21 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="45"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="G47" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
-      <c r="L47" s="47"/>
+      <c r="L47" s="45"/>
       <c r="M47" s="3" t="s">
         <v>26</v>
       </c>
@@ -2632,33 +2650,35 @@
       <c r="E48" s="15"/>
       <c r="G48" s="44"/>
       <c r="H48" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="L48" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N48" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" s="13"/>
-      <c r="G49" s="47"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
       <c r="J49" s="22"/>
@@ -2667,10 +2687,10 @@
         <v>25</v>
       </c>
       <c r="N49" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
@@ -2683,24 +2703,24 @@
       </c>
       <c r="E50" s="4"/>
       <c r="G50" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="L50" s="47"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N50" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="47"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="3" t="s">
         <v>26</v>
       </c>
@@ -2710,12 +2730,12 @@
       <c r="E51" s="4"/>
       <c r="G51" s="44"/>
       <c r="H51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
       <c r="L51" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>24</v>
@@ -2732,7 +2752,7 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
-      <c r="G52" s="45"/>
+      <c r="G52" s="46"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="23"/>
@@ -2741,10 +2761,10 @@
         <v>25</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2756,17 +2776,17 @@
         <v>12</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="L53" s="45"/>
+      <c r="L53" s="46"/>
       <c r="M53" s="5" t="s">
         <v>26</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="47"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="3" t="s">
         <v>26</v>
       </c>
@@ -2774,17 +2794,17 @@
         <v>13</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="G54" s="46" t="s">
-        <v>66</v>
+      <c r="G54" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
@@ -2801,13 +2821,13 @@
         <v>25</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L55" s="46" t="s">
-        <v>87</v>
+        <v>178</v>
+      </c>
+      <c r="L55" s="47" t="s">
+        <v>86</v>
       </c>
       <c r="M55" s="12" t="s">
         <v>24</v>
@@ -2824,27 +2844,27 @@
         <v>14</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="G56" s="47"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L56" s="44"/>
       <c r="M56" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O56" s="4"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="47"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="3" t="s">
         <v>26</v>
       </c>
@@ -2853,16 +2873,16 @@
       </c>
       <c r="E57" s="4"/>
       <c r="G57" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L57" s="47"/>
+        <v>180</v>
+      </c>
+      <c r="L57" s="45"/>
       <c r="M57" s="3" t="s">
         <v>26</v>
       </c>
@@ -2879,7 +2899,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
       <c r="G58" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>24</v>
@@ -2887,7 +2907,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="8"/>
       <c r="L58" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -2909,7 +2929,7 @@
         <v>25</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J59" s="4"/>
       <c r="L59" s="44"/>
@@ -2917,12 +2937,12 @@
         <v>25</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O59" s="4"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="45"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="5" t="s">
         <v>26</v>
       </c>
@@ -2930,13 +2950,13 @@
         <v>17</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="G60" s="45"/>
+      <c r="G60" s="46"/>
       <c r="H60" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="6"/>
-      <c r="L60" s="45"/>
+      <c r="L60" s="46"/>
       <c r="M60" s="5" t="s">
         <v>26</v>
       </c>
@@ -2950,7 +2970,7 @@
       <c r="E61" s="15"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C62" s="12" t="s">
@@ -2958,18 +2978,18 @@
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="13"/>
-      <c r="G62" s="46" t="s">
-        <v>70</v>
+      <c r="G62" s="47" t="s">
+        <v>69</v>
       </c>
       <c r="H62" s="40" t="s">
         <v>24</v>
       </c>
       <c r="I62" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J62" s="41"/>
-      <c r="L62" s="46" t="s">
-        <v>89</v>
+      <c r="L62" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="M62" s="12" t="s">
         <v>24</v>
@@ -2983,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" s="4"/>
       <c r="G63" s="44"/>
@@ -2997,30 +3017,30 @@
         <v>25</v>
       </c>
       <c r="N63" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O63" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="O63" s="4" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="47"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
-      <c r="G64" s="47"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L64" s="47"/>
+      <c r="L64" s="45"/>
       <c r="M64" s="3" t="s">
         <v>26</v>
       </c>
@@ -3037,7 +3057,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
       <c r="G65" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>24</v>
@@ -3045,7 +3065,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="4"/>
       <c r="L65" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>24</v>
@@ -3059,7 +3079,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E66" s="4"/>
       <c r="G66" s="44"/>
@@ -3076,19 +3096,19 @@
       <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="47"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
-      <c r="G67" s="47"/>
+      <c r="G67" s="45"/>
       <c r="H67" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
-      <c r="L67" s="47"/>
+      <c r="L67" s="45"/>
       <c r="M67" s="3" t="s">
         <v>26</v>
       </c>
@@ -3105,17 +3125,17 @@
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
       <c r="G68" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J68" s="4"/>
       <c r="L68" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>24</v>
@@ -3129,7 +3149,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E69" s="4"/>
       <c r="G69" s="44"/>
@@ -3142,26 +3162,26 @@
         <v>25</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="47"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
-      <c r="G70" s="45"/>
+      <c r="G70" s="46"/>
       <c r="H70" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="47"/>
+      <c r="L70" s="45"/>
       <c r="M70" s="3" t="s">
         <v>26</v>
       </c>
@@ -3178,14 +3198,14 @@
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
       <c r="L71" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3194,11 +3214,11 @@
         <v>25</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="G72" s="46" t="s">
-        <v>73</v>
+      <c r="G72" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>24</v>
@@ -3207,7 +3227,7 @@
       <c r="J72" s="13"/>
     </row>
     <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="45"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="5" t="s">
         <v>26</v>
       </c>
@@ -3218,20 +3238,20 @@
         <v>25</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J73" s="4"/>
-      <c r="L73" s="46" t="s">
-        <v>93</v>
+      <c r="L73" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="M73" s="12" t="s">
         <v>24</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O73" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3239,7 +3259,7 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="G74" s="47"/>
+      <c r="G74" s="45"/>
       <c r="H74" s="3" t="s">
         <v>26</v>
       </c>
@@ -3250,42 +3270,42 @@
         <v>25</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="G75" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
-      <c r="L75" s="47"/>
+      <c r="L75" s="45"/>
       <c r="M75" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -3294,21 +3314,21 @@
         <v>25</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J76" s="4"/>
       <c r="L76" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>24</v>
@@ -3317,7 +3337,7 @@
       <c r="O76" s="4"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="47"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="3" t="s">
         <v>26</v>
       </c>
@@ -3325,7 +3345,7 @@
         <v>18</v>
       </c>
       <c r="E77" s="31"/>
-      <c r="G77" s="45"/>
+      <c r="G77" s="46"/>
       <c r="H77" s="5" t="s">
         <v>26</v>
       </c>
@@ -3349,7 +3369,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
-      <c r="L78" s="47"/>
+      <c r="L78" s="45"/>
       <c r="M78" s="3" t="s">
         <v>26</v>
       </c>
@@ -3363,12 +3383,12 @@
         <v>25</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
       <c r="L79" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>24</v>
@@ -3378,7 +3398,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="47"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="3" t="s">
         <v>26</v>
       </c>
@@ -3403,7 +3423,7 @@
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
-      <c r="L81" s="45"/>
+      <c r="L81" s="46"/>
       <c r="M81" s="5" t="s">
         <v>26</v>
       </c>
@@ -3416,14 +3436,14 @@
         <v>25</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="47"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="3" t="s">
         <v>26</v>
       </c>
@@ -3431,8 +3451,8 @@
         <v>20</v>
       </c>
       <c r="E83" s="31"/>
-      <c r="L83" s="46" t="s">
-        <v>96</v>
+      <c r="L83" s="47" t="s">
+        <v>95</v>
       </c>
       <c r="M83" s="12" t="s">
         <v>24</v>
@@ -3442,7 +3462,7 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>24</v>
@@ -3456,7 +3476,7 @@
         <v>25</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O84" s="4"/>
     </row>
@@ -3466,24 +3486,24 @@
         <v>25</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L85" s="47"/>
+        <v>167</v>
+      </c>
+      <c r="L85" s="45"/>
       <c r="M85" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="47"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="3" t="s">
         <v>26</v>
       </c>
@@ -3492,7 +3512,7 @@
       </c>
       <c r="E86" s="4"/>
       <c r="L86" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>24</v>
@@ -3522,10 +3542,10 @@
         <v>25</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="L88" s="45"/>
+      <c r="L88" s="46"/>
       <c r="M88" s="5" t="s">
         <v>26</v>
       </c>
@@ -3533,7 +3553,7 @@
       <c r="O88" s="6"/>
     </row>
     <row r="89" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="47"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="3" t="s">
         <v>26</v>
       </c>
@@ -3550,19 +3570,19 @@
         <v>24</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L90" s="46" t="s">
-        <v>98</v>
+        <v>169</v>
+      </c>
+      <c r="L90" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="M90" s="12" t="s">
         <v>24</v>
       </c>
       <c r="N90" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O90" s="13"/>
     </row>
@@ -3572,32 +3592,32 @@
         <v>25</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L91" s="44"/>
       <c r="M91" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O91" s="4"/>
     </row>
     <row r="92" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="45"/>
+      <c r="B92" s="46"/>
       <c r="C92" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L92" s="47"/>
+        <v>171</v>
+      </c>
+      <c r="L92" s="45"/>
       <c r="M92" s="3" t="s">
         <v>26</v>
       </c>
@@ -3606,7 +3626,7 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L93" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>24</v>
@@ -3623,7 +3643,7 @@
       <c r="O94" s="4"/>
     </row>
     <row r="95" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L95" s="45"/>
+      <c r="L95" s="46"/>
       <c r="M95" s="5" t="s">
         <v>26</v>
       </c>
@@ -3632,8 +3652,8 @@
     </row>
     <row r="96" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L97" s="46" t="s">
-        <v>101</v>
+      <c r="L97" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="M97" s="12" t="s">
         <v>24</v>
@@ -3647,14 +3667,14 @@
         <v>25</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L99" s="47"/>
+      <c r="L99" s="45"/>
       <c r="M99" s="3" t="s">
         <v>26</v>
       </c>
@@ -3663,7 +3683,7 @@
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L100" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>24</v>
@@ -3677,14 +3697,14 @@
         <v>25</v>
       </c>
       <c r="N101" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="O101" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="O101" s="4" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="102" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L102" s="45"/>
+      <c r="L102" s="46"/>
       <c r="M102" s="5" t="s">
         <v>26</v>
       </c>
@@ -3693,8 +3713,8 @@
     </row>
     <row r="103" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L104" s="46" t="s">
-        <v>99</v>
+      <c r="L104" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>24</v>
@@ -3711,7 +3731,7 @@
       <c r="O105" s="4"/>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L106" s="47"/>
+      <c r="L106" s="45"/>
       <c r="M106" s="3" t="s">
         <v>26</v>
       </c>
@@ -3720,7 +3740,7 @@
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L107" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M107" s="3" t="s">
         <v>24</v>
@@ -3737,7 +3757,7 @@
       <c r="O108" s="4"/>
     </row>
     <row r="109" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L109" s="45"/>
+      <c r="L109" s="46"/>
       <c r="M109" s="5" t="s">
         <v>26</v>
       </c>
@@ -3746,7 +3766,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="L42:L44"/>
     <mergeCell ref="L48:L50"/>
     <mergeCell ref="L93:L95"/>
     <mergeCell ref="L97:L99"/>
@@ -3793,25 +3812,27 @@
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B87:B89"/>
     <mergeCell ref="L90:L92"/>
     <mergeCell ref="L73:L75"/>
     <mergeCell ref="L58:L60"/>
     <mergeCell ref="L62:L64"/>
     <mergeCell ref="L65:L67"/>
     <mergeCell ref="L68:L70"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="B84:B86"/>
     <mergeCell ref="L76:L78"/>
     <mergeCell ref="L79:L81"/>
     <mergeCell ref="L83:L85"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G54:G56"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="L86:L88"/>
     <mergeCell ref="G72:G74"/>
     <mergeCell ref="G75:G77"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="L24:L26"/>
     <mergeCell ref="L27:L29"/>
@@ -3821,10 +3842,9 @@
     <mergeCell ref="L39:L41"/>
     <mergeCell ref="L45:L47"/>
     <mergeCell ref="L51:L53"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="L42:L44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>

--- a/Maps/HOTAS Switch and Button - Quick Reference.xlsx
+++ b/Maps/HOTAS Switch and Button - Quick Reference.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="224">
   <si>
     <t>TG1</t>
   </si>
@@ -1266,6 +1266,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,32 +1284,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,8 +1587,8 @@
   </sheetPr>
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,43 +1613,43 @@
   <sheetData>
     <row r="1" spans="2:15" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="G4" s="57" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="G4" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="L4" s="57" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="L4" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="59"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
@@ -1704,7 +1704,7 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="40" t="s">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="41"/>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="51" t="s">
         <v>112</v>
       </c>
       <c r="H7" s="26"/>
@@ -1728,7 +1728,7 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="3" t="s">
         <v>133</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="E8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1756,13 +1756,13 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-      <c r="G9" s="49"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="3"/>
       <c r="I9" s="33"/>
       <c r="J9" s="23"/>
@@ -1774,7 +1774,7 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="3" t="s">
         <v>135</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="E10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="52" t="s">
         <v>113</v>
       </c>
       <c r="H10" s="3"/>
@@ -1800,7 +1800,7 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="3" t="s">
         <v>136</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>151</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="49"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="28" t="s">
         <v>25</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="53"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="5" t="s">
         <v>137</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="E12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="3"/>
       <c r="I12" s="33"/>
       <c r="J12" s="23"/>
@@ -1848,7 +1848,7 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="52" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="3"/>
@@ -1872,13 +1872,13 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="52"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="24"/>
-      <c r="G14" s="49"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="6"/>
-      <c r="G15" s="50"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="27"/>
       <c r="I15" s="33"/>
       <c r="J15" s="23"/>
@@ -1934,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="51" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -1962,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="G18" s="49"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>223</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="5" t="s">
         <v>26</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="51" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="36" t="s">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="51" t="s">
         <v>54</v>
       </c>
       <c r="H21" s="29" t="s">
@@ -2048,7 +2048,7 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="3" t="s">
         <v>133</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="E22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2074,13 +2074,13 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="50"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="5" t="s">
         <v>26</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="3" t="s">
         <v>135</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="3" t="s">
         <v>136</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="5" t="s">
         <v>137</v>
       </c>
@@ -2354,9 +2354,11 @@
         <v>82</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>192</v>
+      </c>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2378,7 +2380,7 @@
       <c r="J36" s="6"/>
       <c r="L36" s="44"/>
       <c r="M36" s="3" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>105</v>
@@ -2395,13 +2397,9 @@
       </c>
       <c r="E37" s="4"/>
       <c r="L37" s="46"/>
-      <c r="M37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="O37" s="6"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="23"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="45"/>
@@ -3766,11 +3764,54 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="L93:L95"/>
-    <mergeCell ref="L97:L99"/>
-    <mergeCell ref="L100:L102"/>
-    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="L55:L57"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
     <mergeCell ref="L107:L109"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="G17:G19"/>
@@ -3787,31 +3828,11 @@
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L17:L19"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="L93:L95"/>
+    <mergeCell ref="L97:L99"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="L104:L106"/>
     <mergeCell ref="L90:L92"/>
     <mergeCell ref="L73:L75"/>
     <mergeCell ref="L58:L60"/>
@@ -3821,30 +3842,7 @@
     <mergeCell ref="L76:L78"/>
     <mergeCell ref="L79:L81"/>
     <mergeCell ref="L83:L85"/>
-    <mergeCell ref="B62:B64"/>
     <mergeCell ref="L86:L88"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L55:L57"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="L42:L44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
